--- a/GDP_current_1994.xlsx
+++ b/GDP_current_1994.xlsx
@@ -27,7 +27,7 @@
     <definedName name="IMPRESION">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">srea1_001!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913" iterateCount="141"/>
 </workbook>
 </file>
 
@@ -260,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -275,6 +275,11 @@
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -428,10 +433,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,9 +495,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,7 +805,7 @@
   <dimension ref="A1:BS22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -846,7 +854,7 @@
     <col min="55" max="55" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="13.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="57" max="60" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="65" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -4752,6 +4760,7 @@
       <c r="AD21" s="23"/>
       <c r="AF21" s="23"/>
       <c r="AH21" s="23"/>
+      <c r="BS21" s="27"/>
     </row>
     <row r="22" spans="1:71" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="25"/>
